--- a/published-data/fonds-solidarite/fds-2021-02-03/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-02-03/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -2024,7 +2024,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>572</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3820238.64</t>
+          <t>3831528.78</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2635,7 +2635,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>832</t>
+          <t>833</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2645,7 +2645,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2510965.54</t>
+          <t>2522695.54</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>810</t>
+          <t>812</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2786,7 +2786,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>5476154.76</t>
+          <t>5537284.76</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3293,17 +3293,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>156</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>156</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>372491.16</t>
+          <t>374491.16</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3481,17 +3481,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>193</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>189</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>463050.00</t>
+          <t>530310.00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3528,17 +3528,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>260</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>257</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>741482.59</t>
+          <t>873089.81</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3575,17 +3575,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>197</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>192</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>495604.35</t>
+          <t>563604.35</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">

--- a/published-data/fonds-solidarite/fds-2021-02-03/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-02-03/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -755,17 +755,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>320</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>300</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1048126.48</t>
+          <t>1088667.48</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -849,17 +849,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>551</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>491</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3931940.27</t>
+          <t>4231204.00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>275</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1843204.49</t>
+          <t>2184224.49</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1930,7 +1930,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>892</t>
+          <t>898</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1940,7 +1940,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>7096362.17</t>
+          <t>7313713.66</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1173</t>
+          <t>1181</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>8790373.05</t>
+          <t>9030924.05</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>814</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2786,7 +2786,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>5537284.76</t>
+          <t>5619450.79</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3152,7 +3152,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>6746</t>
+          <t>6749</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>30896875.12</t>
+          <t>31007350.12</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3387,17 +3387,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>380050.00</t>
+          <t>425050.00</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">

--- a/published-data/fonds-solidarite/fds-2021-02-03/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-02-03/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -849,17 +849,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>564</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>493</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4231204.00</t>
+          <t>4545867.99</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>279</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2184224.49</t>
+          <t>2298317.49</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1601,17 +1601,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>148</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>383149.35</t>
+          <t>403130.37</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>174</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1658,7 +1658,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>869193.73</t>
+          <t>937067.73</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>150</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>658789.60</t>
+          <t>703789.60</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -3387,17 +3387,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>60</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>425050.00</t>
+          <t>470050.00</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -4139,17 +4139,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1306</t>
+          <t>1308</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1110</t>
+          <t>1111</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10818964.05</t>
+          <t>10868143.05</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">

--- a/published-data/fonds-solidarite/fds-2021-02-03/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-02-03/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -520,17 +520,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1575</t>
+          <t>1576</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1373</t>
+          <t>1374</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>13231924.70</t>
+          <t>13241924.70</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -614,17 +614,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1091</t>
+          <t>1092</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>967</t>
+          <t>968</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7830141.57</t>
+          <t>7840141.57</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>481</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3885947.17</t>
+          <t>3962452.17</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>215</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1475556.64</t>
+          <t>1497756.95</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>572</t>
+          <t>573</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3831528.78</t>
+          <t>3858033.56</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3058,17 +3058,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>6895</t>
+          <t>6904</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>6509</t>
+          <t>6511</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>37437310.05</t>
+          <t>37769652.78</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3105,7 +3105,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3115,7 +3115,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>313251.06</t>
+          <t>397400.20</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3152,7 +3152,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>6749</t>
+          <t>6751</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>31007350.12</t>
+          <t>31094761.20</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4045,7 +4045,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>456</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -4055,7 +4055,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1479752.96</t>
+          <t>1490029.96</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
